--- a/dummy_data.xlsx
+++ b/dummy_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CDAC Project\Car Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25F83710-A68C-4560-903B-3E2C2958EA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103BAF75-BC7E-447A-94FD-174BCCACBCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9BAE7B8B-5256-440E-BC8C-BEE2137352DD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="10920" activeTab="3" xr2:uid="{9BAE7B8B-5256-440E-BC8C-BEE2137352DD}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="449">
   <si>
     <t xml:space="preserve">user_id    </t>
   </si>
@@ -1144,51 +1144,15 @@
     <t>Drum</t>
   </si>
   <si>
-    <t>RWD (Rear Wheel Drive)</t>
-  </si>
-  <si>
     <t>BS IV</t>
   </si>
   <si>
-    <t>24 litres</t>
-  </si>
-  <si>
-    <t>180 mm</t>
-  </si>
-  <si>
     <t>tubbed</t>
   </si>
   <si>
-    <t>110 litres</t>
-  </si>
-  <si>
-    <t>624 cc</t>
-  </si>
-  <si>
-    <t>38PS@5500rpm</t>
-  </si>
-  <si>
-    <t>51Nm@4000rpm</t>
-  </si>
-  <si>
     <t>Petrol</t>
   </si>
   <si>
-    <t>3164 mm</t>
-  </si>
-  <si>
-    <t>1750 mm</t>
-  </si>
-  <si>
-    <t>1652 mm</t>
-  </si>
-  <si>
-    <t>2230 mm</t>
-  </si>
-  <si>
-    <t>1210 kg</t>
-  </si>
-  <si>
     <t>Xe</t>
   </si>
   <si>
@@ -1207,33 +1171,6 @@
     <t>Disc</t>
   </si>
   <si>
-    <t>15 litres</t>
-  </si>
-  <si>
-    <t>222 litres</t>
-  </si>
-  <si>
-    <t>999 cc</t>
-  </si>
-  <si>
-    <t>68PS@5500rpm</t>
-  </si>
-  <si>
-    <t>91Nm@4250RPM</t>
-  </si>
-  <si>
-    <t>3429 mm</t>
-  </si>
-  <si>
-    <t>1560 mm</t>
-  </si>
-  <si>
-    <t>1541 mm</t>
-  </si>
-  <si>
-    <t>2348 mm</t>
-  </si>
-  <si>
     <t>Renault</t>
   </si>
   <si>
@@ -1246,30 +1183,6 @@
     <t>tubeless</t>
   </si>
   <si>
-    <t>300 litres</t>
-  </si>
-  <si>
-    <t>799 cc</t>
-  </si>
-  <si>
-    <t>54PS@5678rpm</t>
-  </si>
-  <si>
-    <t>72Nm@4386rpm</t>
-  </si>
-  <si>
-    <t>3731 mm</t>
-  </si>
-  <si>
-    <t>1579 mm</t>
-  </si>
-  <si>
-    <t>1490 mm</t>
-  </si>
-  <si>
-    <t>2422 mm</t>
-  </si>
-  <si>
     <t>Rxt 1.0</t>
   </si>
   <si>
@@ -1282,102 +1195,24 @@
     <t>Lxi</t>
   </si>
   <si>
-    <t>177 litres</t>
-  </si>
-  <si>
-    <t>998 cc</t>
-  </si>
-  <si>
-    <t>68PS@6000rpm</t>
-  </si>
-  <si>
-    <t>90Nm@3500rpm</t>
-  </si>
-  <si>
-    <t>3545 mm</t>
-  </si>
-  <si>
-    <t>1475 mm</t>
-  </si>
-  <si>
-    <t>2360 mm</t>
-  </si>
-  <si>
     <t>Vxi</t>
   </si>
   <si>
-    <t>FWD (Front Wheel Drive)</t>
-  </si>
-  <si>
-    <t>28 litres</t>
-  </si>
-  <si>
-    <t>185 mm</t>
-  </si>
-  <si>
-    <t>68PS@6200rpm</t>
-  </si>
-  <si>
     <t>Go</t>
   </si>
   <si>
     <t>T (O) Cvt</t>
   </si>
   <si>
-    <t>265 litres</t>
-  </si>
-  <si>
-    <t>1198 cc</t>
-  </si>
-  <si>
-    <t>78PS@5000rpm</t>
-  </si>
-  <si>
-    <t>104Nm@4000rpm</t>
-  </si>
-  <si>
-    <t>3788 mm</t>
-  </si>
-  <si>
-    <t>1636 mm</t>
-  </si>
-  <si>
-    <t>1507 mm</t>
-  </si>
-  <si>
-    <t>2450 mm</t>
-  </si>
-  <si>
-    <t>1350 kg</t>
-  </si>
-  <si>
     <t>Celerio Tour</t>
   </si>
   <si>
     <t>H2 Cng</t>
   </si>
   <si>
-    <t>235 litres</t>
-  </si>
-  <si>
-    <t>59bhp@6000rpm</t>
-  </si>
-  <si>
-    <t>78Nm@3500rpm</t>
-  </si>
-  <si>
     <t>CNG</t>
   </si>
   <si>
-    <t>3695 mm</t>
-  </si>
-  <si>
-    <t>1600 mm</t>
-  </si>
-  <si>
-    <t>2425 mm</t>
-  </si>
-  <si>
     <t>Hyundai</t>
   </si>
   <si>
@@ -1390,93 +1225,24 @@
     <t>AMT</t>
   </si>
   <si>
-    <t>236 litres</t>
-  </si>
-  <si>
-    <t>1086 cc</t>
-  </si>
-  <si>
-    <t>69PS@5500rpm</t>
-  </si>
-  <si>
-    <t>10.1kgm@4500RPM</t>
-  </si>
-  <si>
-    <t>3610 mm</t>
-  </si>
-  <si>
-    <t>1645 mm</t>
-  </si>
-  <si>
-    <t>2400 mm</t>
-  </si>
-  <si>
     <t>Sportz Mt</t>
   </si>
   <si>
-    <t>AWD (All Wheel Drive)</t>
-  </si>
-  <si>
     <t>BS 6</t>
   </si>
   <si>
-    <t>54 litres</t>
-  </si>
-  <si>
-    <t>211 mm</t>
-  </si>
-  <si>
-    <t>237 litres</t>
-  </si>
-  <si>
     <t>Tiago</t>
   </si>
   <si>
-    <t>Revotron Xz Plus Dual Tone</t>
-  </si>
-  <si>
-    <t>242 litres</t>
-  </si>
-  <si>
-    <t>1199 cc</t>
-  </si>
-  <si>
-    <t>86PS@6000rpm</t>
-  </si>
-  <si>
-    <t>114NM@3300rpm</t>
-  </si>
-  <si>
-    <t>3746 mm</t>
-  </si>
-  <si>
-    <t>1647 mm</t>
-  </si>
-  <si>
-    <t>1535 mm</t>
-  </si>
-  <si>
     <t>Revotron Xza</t>
   </si>
   <si>
-    <t>184 mm</t>
-  </si>
-  <si>
-    <t>240 litres</t>
-  </si>
-  <si>
     <t>Celerio X</t>
   </si>
   <si>
     <t>Vxi Amt (O)</t>
   </si>
   <si>
-    <t>3600 mm</t>
-  </si>
-  <si>
-    <t>1250 kg</t>
-  </si>
-  <si>
     <t>Zxi</t>
   </si>
   <si>
@@ -1486,30 +1252,6 @@
     <t>Zeta 1.2 Amt</t>
   </si>
   <si>
-    <t>260 litres</t>
-  </si>
-  <si>
-    <t>1197 cc</t>
-  </si>
-  <si>
-    <t>83PS@6000rpm</t>
-  </si>
-  <si>
-    <t>113Nm@4200RPM</t>
-  </si>
-  <si>
-    <t>3700 mm</t>
-  </si>
-  <si>
-    <t>1690 mm</t>
-  </si>
-  <si>
-    <t>1595 mm</t>
-  </si>
-  <si>
-    <t>2435 mm</t>
-  </si>
-  <si>
     <t>Triber</t>
   </si>
   <si>
@@ -1519,27 +1261,6 @@
     <t>MUV</t>
   </si>
   <si>
-    <t>625 litres</t>
-  </si>
-  <si>
-    <t>72PS@62050rpm</t>
-  </si>
-  <si>
-    <t>96Nm@3500rpm</t>
-  </si>
-  <si>
-    <t>3990 mm</t>
-  </si>
-  <si>
-    <t>1739 mm</t>
-  </si>
-  <si>
-    <t>1643 mm</t>
-  </si>
-  <si>
-    <t>2636 mm</t>
-  </si>
-  <si>
     <t>Toyota</t>
   </si>
   <si>
@@ -1549,30 +1270,6 @@
     <t>G</t>
   </si>
   <si>
-    <t>251 litres</t>
-  </si>
-  <si>
-    <t>80PS@5600rpm</t>
-  </si>
-  <si>
-    <t>104Nm@3100rpm</t>
-  </si>
-  <si>
-    <t>3884 mm</t>
-  </si>
-  <si>
-    <t>1695 mm</t>
-  </si>
-  <si>
-    <t>1510 mm</t>
-  </si>
-  <si>
-    <t>2460 mm</t>
-  </si>
-  <si>
-    <t>1475 kg</t>
-  </si>
-  <si>
     <t>Nissan</t>
   </si>
   <si>
@@ -1582,18 +1279,6 @@
     <t>Xv</t>
   </si>
   <si>
-    <t>68PS@5000rpm</t>
-  </si>
-  <si>
-    <t>3801 mm</t>
-  </si>
-  <si>
-    <t>1665 mm</t>
-  </si>
-  <si>
-    <t>1530 mm</t>
-  </si>
-  <si>
     <t>Xl (O)</t>
   </si>
   <si>
@@ -1603,33 +1288,9 @@
     <t>Xt Diesel</t>
   </si>
   <si>
-    <t>210 litres</t>
-  </si>
-  <si>
-    <t>1248 cc</t>
-  </si>
-  <si>
-    <t>75PS@4000rpm</t>
-  </si>
-  <si>
-    <t>190Nm@1750-3000rpm</t>
-  </si>
-  <si>
     <t>Diesel</t>
   </si>
   <si>
-    <t>3825 mm</t>
-  </si>
-  <si>
-    <t>1562 mm</t>
-  </si>
-  <si>
-    <t>2470 mm</t>
-  </si>
-  <si>
-    <t>1160 kg</t>
-  </si>
-  <si>
     <t>Xe Diesel</t>
   </si>
   <si>
@@ -1642,27 +1303,9 @@
     <t>Sedan</t>
   </si>
   <si>
-    <t>407 litres</t>
-  </si>
-  <si>
-    <t>114Nm@6000rpm</t>
-  </si>
-  <si>
     <t>CNG + Petrol</t>
   </si>
   <si>
-    <t>3995 mm</t>
-  </si>
-  <si>
-    <t>1660 mm</t>
-  </si>
-  <si>
-    <t>1520 mm</t>
-  </si>
-  <si>
-    <t>1530 kg</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
@@ -1672,42 +1315,9 @@
     <t>Ldi</t>
   </si>
   <si>
-    <t>40 litres</t>
-  </si>
-  <si>
-    <t>160 mm</t>
-  </si>
-  <si>
-    <t>320 litres</t>
-  </si>
-  <si>
-    <t>190Nm@2000rpm</t>
-  </si>
-  <si>
-    <t>1555 mm</t>
-  </si>
-  <si>
-    <t>2430 mm</t>
-  </si>
-  <si>
-    <t>1505 kg</t>
-  </si>
-  <si>
-    <t>316 litres</t>
-  </si>
-  <si>
-    <t>115Nm@4000rpm</t>
-  </si>
-  <si>
-    <t>1415 kg</t>
-  </si>
-  <si>
     <t>Lxi Cng</t>
   </si>
   <si>
-    <t>69bhp@6000rpm</t>
-  </si>
-  <si>
     <t xml:space="preserve"> model_specification_id</t>
   </si>
   <si>
@@ -1760,12 +1370,30 @@
   </si>
   <si>
     <t xml:space="preserve">    isCentral_locking </t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>Revotron Xz Plus</t>
+  </si>
+  <si>
+    <t>Rear Wheel Drive</t>
+  </si>
+  <si>
+    <t>Front Wheel Drive</t>
+  </si>
+  <si>
+    <t>All Wheel Drive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="[$-14009]yyyy/mm/dd;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1819,7 +1447,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2057,12 +1685,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2082,9 +1734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2108,6 +1758,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2423,10 +2086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E25E5EC-3F5A-4E29-890E-A7C6F2C0351B}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2436,10 +2099,11 @@
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2458,11 +2122,14 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -2481,11 +2148,14 @@
       <c r="F3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="29">
+        <v>36251</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -2504,11 +2174,14 @@
       <c r="F4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="30">
+        <v>36906</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -2527,11 +2200,14 @@
       <c r="F5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="30">
+        <v>36211</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -2550,11 +2226,14 @@
       <c r="F6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="30">
+        <v>36610</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -2573,11 +2252,14 @@
       <c r="F7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="30">
+        <v>35915</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -2596,11 +2278,14 @@
       <c r="F8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="30">
+        <v>37381</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -2619,11 +2304,14 @@
       <c r="F9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="30">
+        <v>34860</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -2642,11 +2330,14 @@
       <c r="F10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="30">
+        <v>37817</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -2665,11 +2356,14 @@
       <c r="F11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="30">
+        <v>37123</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -2688,11 +2382,14 @@
       <c r="F12" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="30">
+        <v>36794</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -2711,11 +2408,14 @@
       <c r="F13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="30">
+        <v>36463</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -2734,11 +2434,14 @@
       <c r="F14" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="30">
+        <v>35739</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>13</v>
       </c>
@@ -2757,11 +2460,14 @@
       <c r="F15" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="30">
+        <v>38331</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -2780,11 +2486,14 @@
       <c r="F16" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="30">
+        <v>37271</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>15</v>
       </c>
@@ -2803,11 +2512,14 @@
       <c r="F17" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="30">
+        <v>35115</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -2826,11 +2538,14 @@
       <c r="F18" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="30">
+        <v>35879</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>17</v>
       </c>
@@ -2849,11 +2564,14 @@
       <c r="F19" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="30">
+        <v>36646</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -2872,11 +2590,14 @@
       <c r="F20" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="30">
+        <v>34824</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>19</v>
       </c>
@@ -2895,11 +2616,14 @@
       <c r="F21" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="30">
+        <v>37052</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -2918,11 +2642,14 @@
       <c r="F22" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="30">
+        <v>35626</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>21</v>
       </c>
@@ -2941,11 +2668,14 @@
       <c r="F23" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="30">
+        <v>36392</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -2964,11 +2694,14 @@
       <c r="F24" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="30">
+        <v>37889</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>23</v>
       </c>
@@ -2987,11 +2720,14 @@
       <c r="F25" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="30">
+        <v>36829</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -3010,11 +2746,14 @@
       <c r="F26" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="30">
+        <v>36104</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>25</v>
       </c>
@@ -3033,11 +2772,14 @@
       <c r="F27" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="30">
+        <v>36504</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -3056,11 +2798,14 @@
       <c r="F28" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="30">
+        <v>35079</v>
+      </c>
+      <c r="H28" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>27</v>
       </c>
@@ -3079,11 +2824,14 @@
       <c r="F29" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="30">
+        <v>37307</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -3102,11 +2850,14 @@
       <c r="F30" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="30">
+        <v>36975</v>
+      </c>
+      <c r="H30" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>29</v>
       </c>
@@ -3125,11 +2876,14 @@
       <c r="F31" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="30">
+        <v>36280</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -3148,11 +2902,14 @@
       <c r="F32" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="30">
+        <v>35920</v>
+      </c>
+      <c r="H32" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>31</v>
       </c>
@@ -3171,11 +2928,14 @@
       <c r="F33" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="30">
+        <v>38148</v>
+      </c>
+      <c r="H33" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -3194,11 +2954,14 @@
       <c r="F34" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="30">
+        <v>37452</v>
+      </c>
+      <c r="H34" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>33</v>
       </c>
@@ -3217,11 +2980,14 @@
       <c r="F35" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="30">
+        <v>35662</v>
+      </c>
+      <c r="H35" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -3240,11 +3006,14 @@
       <c r="F36" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="30">
+        <v>34967</v>
+      </c>
+      <c r="H36" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>35</v>
       </c>
@@ -3263,11 +3032,14 @@
       <c r="F37" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="30">
+        <v>35368</v>
+      </c>
+      <c r="H37" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -3286,11 +3058,14 @@
       <c r="F38" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="30">
+        <v>36835</v>
+      </c>
+      <c r="H38" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>37</v>
       </c>
@@ -3309,11 +3084,14 @@
       <c r="F39" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="30">
+        <v>36139</v>
+      </c>
+      <c r="H39" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -3332,11 +3110,14 @@
       <c r="F40" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="30">
+        <v>36175</v>
+      </c>
+      <c r="H40" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>39</v>
       </c>
@@ -3355,11 +3136,14 @@
       <c r="F41" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="30">
+        <v>36942</v>
+      </c>
+      <c r="H41" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>40</v>
       </c>
@@ -3378,11 +3162,14 @@
       <c r="F42" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="30">
+        <v>36610</v>
+      </c>
+      <c r="H42" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>41</v>
       </c>
@@ -3401,11 +3188,14 @@
       <c r="F43" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="30">
+        <v>36280</v>
+      </c>
+      <c r="H43" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -3424,11 +3214,14 @@
       <c r="F44" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="30">
+        <v>34824</v>
+      </c>
+      <c r="H44" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>43</v>
       </c>
@@ -3447,11 +3240,14 @@
       <c r="F45" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="30">
+        <v>37782</v>
+      </c>
+      <c r="H45" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -3470,11 +3266,14 @@
       <c r="F46" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="30">
+        <v>37452</v>
+      </c>
+      <c r="H46" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>45</v>
       </c>
@@ -3493,11 +3292,14 @@
       <c r="F47" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="30">
+        <v>35662</v>
+      </c>
+      <c r="H47" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -3516,11 +3318,14 @@
       <c r="F48" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="30">
+        <v>36063</v>
+      </c>
+      <c r="H48" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>47</v>
       </c>
@@ -3539,11 +3344,14 @@
       <c r="F49" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="30">
+        <v>36829</v>
+      </c>
+      <c r="H49" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -3562,11 +3370,14 @@
       <c r="F50" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G50" s="30">
+        <v>36469</v>
+      </c>
+      <c r="H50" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>49</v>
       </c>
@@ -3585,11 +3396,14 @@
       <c r="F51" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="G51" s="30">
+        <v>37235</v>
+      </c>
+      <c r="H51" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -3608,11 +3422,14 @@
       <c r="F52" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G52" s="30">
+        <v>35079</v>
+      </c>
+      <c r="H52" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>51</v>
       </c>
@@ -3631,11 +3448,14 @@
       <c r="F53" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="30">
+        <v>38037</v>
+      </c>
+      <c r="H53" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -3654,11 +3474,14 @@
       <c r="F54" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G54" s="30">
+        <v>37340</v>
+      </c>
+      <c r="H54" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>53</v>
       </c>
@@ -3677,11 +3500,14 @@
       <c r="F55" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="G55" s="30">
+        <v>35915</v>
+      </c>
+      <c r="H55" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>54</v>
       </c>
@@ -3700,11 +3526,14 @@
       <c r="F56" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="30">
+        <v>35555</v>
+      </c>
+      <c r="H56" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15">
         <v>55</v>
       </c>
@@ -3723,7 +3552,10 @@
       <c r="F57" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="G57" s="17" t="s">
+      <c r="G57" s="31">
+        <v>36722</v>
+      </c>
+      <c r="H57" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3736,8 +3568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C982145-1CFF-4091-86AC-58D126572BCF}">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3756,7 +3588,7 @@
     <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.28515625" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3803,7 +3635,7 @@
       <c r="N2" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="34" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3850,7 +3682,7 @@
       <c r="N3" s="8">
         <v>2</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="35">
         <v>292667</v>
       </c>
     </row>
@@ -3876,7 +3708,7 @@
       <c r="G4" s="12">
         <v>72000</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>23.6</v>
       </c>
       <c r="I4" s="12" t="s">
@@ -3897,7 +3729,7 @@
       <c r="N4" s="12">
         <v>3</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="36">
         <v>236447</v>
       </c>
     </row>
@@ -3923,7 +3755,7 @@
       <c r="G5" s="12">
         <v>72000</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="19">
         <v>36</v>
       </c>
       <c r="I5" s="12" t="s">
@@ -3944,7 +3776,7 @@
       <c r="N5" s="8">
         <v>4</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="36">
         <v>296661</v>
       </c>
     </row>
@@ -3970,7 +3802,7 @@
       <c r="G6" s="12">
         <v>72000</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>21.9</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -3991,7 +3823,7 @@
       <c r="N6" s="12">
         <v>5</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="36">
         <v>334768</v>
       </c>
     </row>
@@ -4017,7 +3849,7 @@
       <c r="G7" s="12">
         <v>72000</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <v>23.6</v>
       </c>
       <c r="I7" s="12" t="s">
@@ -4038,7 +3870,7 @@
       <c r="N7" s="8">
         <v>6</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="36">
         <v>272223</v>
       </c>
     </row>
@@ -4064,7 +3896,7 @@
       <c r="G8" s="12">
         <v>72000</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <v>21.9</v>
       </c>
       <c r="I8" s="12" t="s">
@@ -4085,7 +3917,7 @@
       <c r="N8" s="12">
         <v>7</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="36">
         <v>314815</v>
       </c>
     </row>
@@ -4111,7 +3943,7 @@
       <c r="G9" s="12">
         <v>72000</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <v>25.17</v>
       </c>
       <c r="I9" s="12" t="s">
@@ -4132,7 +3964,7 @@
       <c r="N9" s="8">
         <v>8</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="36">
         <v>279650</v>
       </c>
     </row>
@@ -4158,7 +3990,7 @@
       <c r="G10" s="12">
         <v>55000</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <v>25.17</v>
       </c>
       <c r="I10" s="12" t="s">
@@ -4179,7 +4011,7 @@
       <c r="N10" s="12">
         <v>9</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="36">
         <v>351832</v>
       </c>
     </row>
@@ -4205,7 +4037,7 @@
       <c r="G11" s="12">
         <v>55000</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <v>25.17</v>
       </c>
       <c r="I11" s="12" t="s">
@@ -4226,7 +4058,7 @@
       <c r="N11" s="8">
         <v>10</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="36">
         <v>333419</v>
       </c>
     </row>
@@ -4252,7 +4084,7 @@
       <c r="G12" s="12">
         <v>55000</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <v>25.17</v>
       </c>
       <c r="I12" s="12" t="s">
@@ -4273,7 +4105,7 @@
       <c r="N12" s="12">
         <v>11</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="36">
         <v>362000</v>
       </c>
     </row>
@@ -4299,7 +4131,7 @@
       <c r="G13" s="12">
         <v>55000</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <v>22.5</v>
       </c>
       <c r="I13" s="12" t="s">
@@ -4320,7 +4152,7 @@
       <c r="N13" s="8">
         <v>12</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="36">
         <v>390000</v>
       </c>
     </row>
@@ -4346,7 +4178,7 @@
       <c r="G14" s="12">
         <v>55000</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <v>23</v>
       </c>
       <c r="I14" s="12" t="s">
@@ -4367,7 +4199,7 @@
       <c r="N14" s="12">
         <v>13</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="36">
         <v>437065</v>
       </c>
     </row>
@@ -4393,7 +4225,7 @@
       <c r="G15" s="12">
         <v>17000</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <v>25.17</v>
       </c>
       <c r="I15" s="12" t="s">
@@ -4414,7 +4246,7 @@
       <c r="N15" s="8">
         <v>14</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="36">
         <v>353290</v>
       </c>
     </row>
@@ -4440,7 +4272,7 @@
       <c r="G16" s="12">
         <v>40000</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <v>25.17</v>
       </c>
       <c r="I16" s="12" t="s">
@@ -4461,7 +4293,7 @@
       <c r="N16" s="12">
         <v>15</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O16" s="36">
         <v>283290</v>
       </c>
     </row>
@@ -4487,7 +4319,7 @@
       <c r="G17" s="12">
         <v>17000</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <v>25.17</v>
       </c>
       <c r="I17" s="12" t="s">
@@ -4508,7 +4340,7 @@
       <c r="N17" s="8">
         <v>16</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="36">
         <v>383290</v>
       </c>
     </row>
@@ -4534,7 +4366,7 @@
       <c r="G18" s="12">
         <v>40000</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="19">
         <v>25.17</v>
       </c>
       <c r="I18" s="12" t="s">
@@ -4555,7 +4387,7 @@
       <c r="N18" s="12">
         <v>17</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="36">
         <v>413290</v>
       </c>
     </row>
@@ -4581,7 +4413,7 @@
       <c r="G19" s="12">
         <v>17000</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="19">
         <v>23.01</v>
       </c>
       <c r="I19" s="12" t="s">
@@ -4602,7 +4434,7 @@
       <c r="N19" s="8">
         <v>18</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="36">
         <v>433290</v>
       </c>
     </row>
@@ -4628,7 +4460,7 @@
       <c r="G20" s="12">
         <v>40000</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="19">
         <v>23.01</v>
       </c>
       <c r="I20" s="12" t="s">
@@ -4649,7 +4481,7 @@
       <c r="N20" s="12">
         <v>19</v>
       </c>
-      <c r="O20" s="21">
+      <c r="O20" s="36">
         <v>454490</v>
       </c>
     </row>
@@ -4675,7 +4507,7 @@
       <c r="G21" s="12">
         <v>17000</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="19">
         <v>24.04</v>
       </c>
       <c r="I21" s="12" t="s">
@@ -4696,7 +4528,7 @@
       <c r="N21" s="8">
         <v>20</v>
       </c>
-      <c r="O21" s="21">
+      <c r="O21" s="36">
         <v>463290</v>
       </c>
     </row>
@@ -4722,7 +4554,7 @@
       <c r="G22" s="12">
         <v>8500</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="19">
         <v>24.04</v>
       </c>
       <c r="I22" s="12" t="s">
@@ -4743,7 +4575,7 @@
       <c r="N22" s="12">
         <v>21</v>
       </c>
-      <c r="O22" s="21">
+      <c r="O22" s="36">
         <v>484490</v>
       </c>
     </row>
@@ -4769,7 +4601,7 @@
       <c r="G23" s="12">
         <v>8500</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="19">
         <v>23.01</v>
       </c>
       <c r="I23" s="12" t="s">
@@ -4790,7 +4622,7 @@
       <c r="N23" s="8">
         <v>22</v>
       </c>
-      <c r="O23" s="21">
+      <c r="O23" s="36">
         <v>440990</v>
       </c>
     </row>
@@ -4816,7 +4648,7 @@
       <c r="G24" s="12">
         <v>14000</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="19">
         <v>23.01</v>
       </c>
       <c r="I24" s="12" t="s">
@@ -4837,7 +4669,7 @@
       <c r="N24" s="12">
         <v>23</v>
       </c>
-      <c r="O24" s="21">
+      <c r="O24" s="36">
         <v>470990</v>
       </c>
     </row>
@@ -4863,7 +4695,7 @@
       <c r="G25" s="12">
         <v>14000</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="19">
         <v>23.01</v>
       </c>
       <c r="I25" s="12" t="s">
@@ -4884,7 +4716,7 @@
       <c r="N25" s="8">
         <v>24</v>
       </c>
-      <c r="O25" s="21">
+      <c r="O25" s="36">
         <v>462190</v>
       </c>
     </row>
@@ -4910,7 +4742,7 @@
       <c r="G26" s="12">
         <v>14000</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="19">
         <v>24.04</v>
       </c>
       <c r="I26" s="12" t="s">
@@ -4931,7 +4763,7 @@
       <c r="N26" s="12">
         <v>25</v>
       </c>
-      <c r="O26" s="21">
+      <c r="O26" s="36">
         <v>492190</v>
       </c>
     </row>
@@ -4957,7 +4789,7 @@
       <c r="G27" s="12">
         <v>14000</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="19">
         <v>15</v>
       </c>
       <c r="I27" s="12" t="s">
@@ -4978,7 +4810,7 @@
       <c r="N27" s="8">
         <v>26</v>
       </c>
-      <c r="O27" s="21">
+      <c r="O27" s="36">
         <v>352136</v>
       </c>
     </row>
@@ -5004,7 +4836,7 @@
       <c r="G28" s="12">
         <v>14000</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="19">
         <v>15</v>
       </c>
       <c r="I28" s="12" t="s">
@@ -5025,7 +4857,7 @@
       <c r="N28" s="12">
         <v>27</v>
       </c>
-      <c r="O28" s="21">
+      <c r="O28" s="36">
         <v>380573</v>
       </c>
     </row>
@@ -5051,7 +4883,7 @@
       <c r="G29" s="12">
         <v>8500</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="19">
         <v>15</v>
       </c>
       <c r="I29" s="12" t="s">
@@ -5072,7 +4904,7 @@
       <c r="N29" s="8">
         <v>28</v>
       </c>
-      <c r="O29" s="21">
+      <c r="O29" s="36">
         <v>392967</v>
       </c>
     </row>
@@ -5098,7 +4930,7 @@
       <c r="G30" s="12">
         <v>72000</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="19">
         <v>23.6</v>
       </c>
       <c r="I30" s="12" t="s">
@@ -5119,7 +4951,7 @@
       <c r="N30" s="12">
         <v>29</v>
       </c>
-      <c r="O30" s="21">
+      <c r="O30" s="36">
         <v>292667</v>
       </c>
     </row>
@@ -5145,7 +4977,7 @@
       <c r="G31" s="12">
         <v>72000</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="19">
         <v>23.6</v>
       </c>
       <c r="I31" s="12" t="s">
@@ -5166,7 +4998,7 @@
       <c r="N31" s="8">
         <v>30</v>
       </c>
-      <c r="O31" s="21">
+      <c r="O31" s="36">
         <v>236447</v>
       </c>
     </row>
@@ -5192,7 +5024,7 @@
       <c r="G32" s="12">
         <v>72000</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="19">
         <v>36</v>
       </c>
       <c r="I32" s="12" t="s">
@@ -5213,7 +5045,7 @@
       <c r="N32" s="12">
         <v>31</v>
       </c>
-      <c r="O32" s="21">
+      <c r="O32" s="36">
         <v>296661</v>
       </c>
     </row>
@@ -5239,7 +5071,7 @@
       <c r="G33" s="12">
         <v>72000</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="19">
         <v>21.9</v>
       </c>
       <c r="I33" s="12" t="s">
@@ -5260,7 +5092,7 @@
       <c r="N33" s="8">
         <v>32</v>
       </c>
-      <c r="O33" s="22">
+      <c r="O33" s="36">
         <v>334768</v>
       </c>
     </row>
@@ -5286,7 +5118,7 @@
       <c r="G34" s="12">
         <v>72000</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="19">
         <v>23.6</v>
       </c>
       <c r="I34" s="12" t="s">
@@ -5307,7 +5139,7 @@
       <c r="N34" s="12">
         <v>33</v>
       </c>
-      <c r="O34" s="22">
+      <c r="O34" s="36">
         <v>272223</v>
       </c>
     </row>
@@ -5333,7 +5165,7 @@
       <c r="G35" s="12">
         <v>72000</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="19">
         <v>21.9</v>
       </c>
       <c r="I35" s="12" t="s">
@@ -5354,7 +5186,7 @@
       <c r="N35" s="8">
         <v>34</v>
       </c>
-      <c r="O35" s="22">
+      <c r="O35" s="36">
         <v>314815</v>
       </c>
     </row>
@@ -5380,7 +5212,7 @@
       <c r="G36" s="12">
         <v>72000</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="19">
         <v>25.17</v>
       </c>
       <c r="I36" s="12" t="s">
@@ -5401,7 +5233,7 @@
       <c r="N36" s="12">
         <v>35</v>
       </c>
-      <c r="O36" s="22">
+      <c r="O36" s="36">
         <v>279650</v>
       </c>
     </row>
@@ -5427,7 +5259,7 @@
       <c r="G37" s="12">
         <v>55000</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="19">
         <v>25.17</v>
       </c>
       <c r="I37" s="12" t="s">
@@ -5448,7 +5280,7 @@
       <c r="N37" s="8">
         <v>36</v>
       </c>
-      <c r="O37" s="22">
+      <c r="O37" s="36">
         <v>351832</v>
       </c>
     </row>
@@ -5474,7 +5306,7 @@
       <c r="G38" s="12">
         <v>55000</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="19">
         <v>25.17</v>
       </c>
       <c r="I38" s="12" t="s">
@@ -5495,7 +5327,7 @@
       <c r="N38" s="12">
         <v>37</v>
       </c>
-      <c r="O38" s="22">
+      <c r="O38" s="36">
         <v>333419</v>
       </c>
     </row>
@@ -5521,7 +5353,7 @@
       <c r="G39" s="12">
         <v>55000</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="19">
         <v>25.17</v>
       </c>
       <c r="I39" s="12" t="s">
@@ -5542,7 +5374,7 @@
       <c r="N39" s="8">
         <v>38</v>
       </c>
-      <c r="O39" s="22">
+      <c r="O39" s="36">
         <v>362000</v>
       </c>
     </row>
@@ -5568,7 +5400,7 @@
       <c r="G40" s="12">
         <v>55000</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="19">
         <v>22.5</v>
       </c>
       <c r="I40" s="12" t="s">
@@ -5589,7 +5421,7 @@
       <c r="N40" s="12">
         <v>39</v>
       </c>
-      <c r="O40" s="22">
+      <c r="O40" s="36">
         <v>390000</v>
       </c>
     </row>
@@ -5615,7 +5447,7 @@
       <c r="G41" s="12">
         <v>55000</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="19">
         <v>23</v>
       </c>
       <c r="I41" s="12" t="s">
@@ -5636,7 +5468,7 @@
       <c r="N41" s="8">
         <v>40</v>
       </c>
-      <c r="O41" s="22">
+      <c r="O41" s="36">
         <v>437065</v>
       </c>
     </row>
@@ -5662,7 +5494,7 @@
       <c r="G42" s="12">
         <v>17000</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="19">
         <v>25.17</v>
       </c>
       <c r="I42" s="12" t="s">
@@ -5683,7 +5515,7 @@
       <c r="N42" s="12">
         <v>41</v>
       </c>
-      <c r="O42" s="22">
+      <c r="O42" s="36">
         <v>353290</v>
       </c>
     </row>
@@ -5709,7 +5541,7 @@
       <c r="G43" s="12">
         <v>40000</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43" s="19">
         <v>25.17</v>
       </c>
       <c r="I43" s="12" t="s">
@@ -5730,7 +5562,7 @@
       <c r="N43" s="8">
         <v>42</v>
       </c>
-      <c r="O43" s="22">
+      <c r="O43" s="36">
         <v>283290</v>
       </c>
     </row>
@@ -5756,7 +5588,7 @@
       <c r="G44" s="12">
         <v>17000</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="19">
         <v>25.17</v>
       </c>
       <c r="I44" s="12" t="s">
@@ -5777,7 +5609,7 @@
       <c r="N44" s="12">
         <v>43</v>
       </c>
-      <c r="O44" s="22">
+      <c r="O44" s="36">
         <v>383290</v>
       </c>
     </row>
@@ -5803,7 +5635,7 @@
       <c r="G45" s="12">
         <v>40000</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="19">
         <v>25.17</v>
       </c>
       <c r="I45" s="12" t="s">
@@ -5824,7 +5656,7 @@
       <c r="N45" s="8">
         <v>44</v>
       </c>
-      <c r="O45" s="22">
+      <c r="O45" s="36">
         <v>413290</v>
       </c>
     </row>
@@ -5850,7 +5682,7 @@
       <c r="G46" s="12">
         <v>17000</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="19">
         <v>23.01</v>
       </c>
       <c r="I46" s="12" t="s">
@@ -5871,7 +5703,7 @@
       <c r="N46" s="12">
         <v>45</v>
       </c>
-      <c r="O46" s="22">
+      <c r="O46" s="36">
         <v>433290</v>
       </c>
     </row>
@@ -5897,7 +5729,7 @@
       <c r="G47" s="12">
         <v>40000</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="19">
         <v>23.01</v>
       </c>
       <c r="I47" s="12" t="s">
@@ -5918,7 +5750,7 @@
       <c r="N47" s="8">
         <v>46</v>
       </c>
-      <c r="O47" s="22">
+      <c r="O47" s="36">
         <v>454490</v>
       </c>
     </row>
@@ -5944,7 +5776,7 @@
       <c r="G48" s="12">
         <v>17000</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="19">
         <v>24.04</v>
       </c>
       <c r="I48" s="12" t="s">
@@ -5965,7 +5797,7 @@
       <c r="N48" s="12">
         <v>47</v>
       </c>
-      <c r="O48" s="22">
+      <c r="O48" s="36">
         <v>463290</v>
       </c>
     </row>
@@ -5991,7 +5823,7 @@
       <c r="G49" s="12">
         <v>8500</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="19">
         <v>24.04</v>
       </c>
       <c r="I49" s="12" t="s">
@@ -6012,7 +5844,7 @@
       <c r="N49" s="8">
         <v>48</v>
       </c>
-      <c r="O49" s="22">
+      <c r="O49" s="36">
         <v>484490</v>
       </c>
     </row>
@@ -6038,7 +5870,7 @@
       <c r="G50" s="12">
         <v>8500</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50" s="19">
         <v>23.01</v>
       </c>
       <c r="I50" s="12" t="s">
@@ -6059,7 +5891,7 @@
       <c r="N50" s="12">
         <v>49</v>
       </c>
-      <c r="O50" s="22">
+      <c r="O50" s="36">
         <v>440990</v>
       </c>
     </row>
@@ -6085,7 +5917,7 @@
       <c r="G51" s="12">
         <v>14000</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="19">
         <v>23.01</v>
       </c>
       <c r="I51" s="12" t="s">
@@ -6106,7 +5938,7 @@
       <c r="N51" s="8">
         <v>50</v>
       </c>
-      <c r="O51" s="22">
+      <c r="O51" s="36">
         <v>470990</v>
       </c>
     </row>
@@ -6132,7 +5964,7 @@
       <c r="G52" s="12">
         <v>14000</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H52" s="19">
         <v>23.01</v>
       </c>
       <c r="I52" s="12" t="s">
@@ -6153,7 +5985,7 @@
       <c r="N52" s="12">
         <v>51</v>
       </c>
-      <c r="O52" s="22">
+      <c r="O52" s="36">
         <v>462190</v>
       </c>
     </row>
@@ -6179,7 +6011,7 @@
       <c r="G53" s="12">
         <v>14000</v>
       </c>
-      <c r="H53" s="12">
+      <c r="H53" s="19">
         <v>24.04</v>
       </c>
       <c r="I53" s="12" t="s">
@@ -6200,7 +6032,7 @@
       <c r="N53" s="8">
         <v>52</v>
       </c>
-      <c r="O53" s="22">
+      <c r="O53" s="36">
         <v>492190</v>
       </c>
     </row>
@@ -6226,7 +6058,7 @@
       <c r="G54" s="12">
         <v>14000</v>
       </c>
-      <c r="H54" s="12">
+      <c r="H54" s="19">
         <v>15</v>
       </c>
       <c r="I54" s="12" t="s">
@@ -6247,7 +6079,7 @@
       <c r="N54" s="12">
         <v>53</v>
       </c>
-      <c r="O54" s="22">
+      <c r="O54" s="36">
         <v>352136</v>
       </c>
     </row>
@@ -6273,7 +6105,7 @@
       <c r="G55" s="12">
         <v>14000</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="19">
         <v>15</v>
       </c>
       <c r="I55" s="12" t="s">
@@ -6294,7 +6126,7 @@
       <c r="N55" s="8">
         <v>54</v>
       </c>
-      <c r="O55" s="22">
+      <c r="O55" s="36">
         <v>380573</v>
       </c>
     </row>
@@ -6320,7 +6152,7 @@
       <c r="G56" s="16">
         <v>8500</v>
       </c>
-      <c r="H56" s="16">
+      <c r="H56" s="32">
         <v>15</v>
       </c>
       <c r="I56" s="16" t="s">
@@ -6341,7 +6173,7 @@
       <c r="N56" s="16">
         <v>55</v>
       </c>
-      <c r="O56" s="17">
+      <c r="O56" s="37">
         <v>392967</v>
       </c>
     </row>
@@ -6354,8 +6186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A051FE88-6176-4062-B62D-96F177C1EE99}">
   <dimension ref="A1:AN29"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6363,17 +6195,20 @@
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="12" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="33" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
     <col min="15" max="16" width="16.5703125" customWidth="1"/>
     <col min="17" max="17" width="20" customWidth="1"/>
     <col min="18" max="19" width="18.5703125" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="21" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.7109375" customWidth="1"/>
@@ -6416,7 +6251,7 @@
       <c r="K2" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="38" t="s">
         <v>347</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -6440,7 +6275,7 @@
       <c r="S2" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="22" t="s">
         <v>355</v>
       </c>
       <c r="U2" s="2" t="s">
@@ -6461,15 +6296,15 @@
       <c r="Z2" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -6500,55 +6335,55 @@
         <v>367</v>
       </c>
       <c r="J3" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="18">
+        <v>24</v>
+      </c>
+      <c r="M3" s="8">
+        <v>180</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>373</v>
+      <c r="O3" s="8">
+        <v>110</v>
       </c>
       <c r="P3" s="8">
         <v>4</v>
       </c>
-      <c r="Q3" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="T3" s="26">
+      <c r="Q3" s="8">
+        <v>624</v>
+      </c>
+      <c r="R3" s="8">
+        <v>38</v>
+      </c>
+      <c r="S3" s="39">
+        <v>51</v>
+      </c>
+      <c r="T3" s="24">
         <v>2</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="Z3" s="22" t="s">
-        <v>382</v>
+        <v>370</v>
+      </c>
+      <c r="V3" s="8">
+        <v>3164</v>
+      </c>
+      <c r="W3" s="8">
+        <v>1750</v>
+      </c>
+      <c r="X3" s="8">
+        <v>1652</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>2230</v>
+      </c>
+      <c r="Z3" s="20">
+        <v>1210</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
@@ -6562,7 +6397,7 @@
         <v>363</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>365</v>
@@ -6580,55 +6415,55 @@
         <v>367</v>
       </c>
       <c r="J4" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="L4" s="19">
+        <v>24</v>
+      </c>
+      <c r="M4" s="12">
+        <v>180</v>
+      </c>
+      <c r="N4" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="L4" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>373</v>
+      <c r="O4" s="12">
+        <v>110</v>
       </c>
       <c r="P4" s="12">
         <v>4</v>
       </c>
-      <c r="Q4" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="T4" s="27">
+      <c r="Q4" s="12">
+        <v>624</v>
+      </c>
+      <c r="R4" s="12">
+        <v>38</v>
+      </c>
+      <c r="S4" s="19">
+        <v>51</v>
+      </c>
+      <c r="T4" s="25">
         <v>2</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="Z4" s="22" t="s">
-        <v>382</v>
+        <v>370</v>
+      </c>
+      <c r="V4" s="12">
+        <v>3164</v>
+      </c>
+      <c r="W4" s="12">
+        <v>1750</v>
+      </c>
+      <c r="X4" s="12">
+        <v>1652</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>2230</v>
+      </c>
+      <c r="Z4" s="20">
+        <v>1210</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
@@ -6636,79 +6471,79 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>365</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G5" s="12">
         <v>5</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>367</v>
       </c>
       <c r="J5" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="L5" s="19">
+        <v>15</v>
+      </c>
+      <c r="M5" s="12">
+        <v>180</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>390</v>
+      <c r="O5" s="12">
+        <v>222</v>
       </c>
       <c r="P5" s="12">
         <v>5</v>
       </c>
-      <c r="Q5" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="T5" s="27">
+      <c r="Q5" s="12">
+        <v>999</v>
+      </c>
+      <c r="R5" s="12">
+        <v>68</v>
+      </c>
+      <c r="S5" s="19">
+        <v>91</v>
+      </c>
+      <c r="T5" s="25">
         <v>3</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="X5" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="Y5" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="Z5" s="22" t="s">
-        <v>382</v>
+        <v>370</v>
+      </c>
+      <c r="V5" s="12">
+        <v>3429</v>
+      </c>
+      <c r="W5" s="12">
+        <v>1560</v>
+      </c>
+      <c r="X5" s="12">
+        <v>1541</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>2348</v>
+      </c>
+      <c r="Z5" s="20">
+        <v>1210</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
@@ -6716,13 +6551,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>365</v>
@@ -6734,61 +6569,61 @@
         <v>6</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>367</v>
       </c>
       <c r="J6" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>371</v>
+      <c r="L6" s="19">
+        <v>24</v>
+      </c>
+      <c r="M6" s="12">
+        <v>180</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>402</v>
+        <v>380</v>
+      </c>
+      <c r="O6" s="12">
+        <v>300</v>
       </c>
       <c r="P6" s="12">
         <v>5</v>
       </c>
-      <c r="Q6" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="T6" s="27">
+      <c r="Q6" s="12">
+        <v>799</v>
+      </c>
+      <c r="R6" s="12">
+        <v>54</v>
+      </c>
+      <c r="S6" s="19">
+        <v>72</v>
+      </c>
+      <c r="T6" s="25">
         <v>3</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="X6" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y6" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="Z6" s="22" t="s">
-        <v>382</v>
+        <v>370</v>
+      </c>
+      <c r="V6" s="12">
+        <v>3731</v>
+      </c>
+      <c r="W6" s="12">
+        <v>1579</v>
+      </c>
+      <c r="X6" s="12">
+        <v>1490</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>2422</v>
+      </c>
+      <c r="Z6" s="20">
+        <v>1210</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
@@ -6796,13 +6631,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>365</v>
@@ -6814,61 +6649,61 @@
         <v>5</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>367</v>
       </c>
       <c r="J7" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>371</v>
+      <c r="L7" s="19">
+        <v>24</v>
+      </c>
+      <c r="M7" s="12">
+        <v>180</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>402</v>
+        <v>380</v>
+      </c>
+      <c r="O7" s="12">
+        <v>300</v>
       </c>
       <c r="P7" s="12">
         <v>5</v>
       </c>
-      <c r="Q7" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="T7" s="27">
+      <c r="Q7" s="12">
+        <v>999</v>
+      </c>
+      <c r="R7" s="12">
+        <v>68</v>
+      </c>
+      <c r="S7" s="19">
+        <v>91</v>
+      </c>
+      <c r="T7" s="25">
         <v>3</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="W7" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="X7" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y7" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="Z7" s="22" t="s">
-        <v>382</v>
+        <v>370</v>
+      </c>
+      <c r="V7" s="12">
+        <v>3731</v>
+      </c>
+      <c r="W7" s="12">
+        <v>1579</v>
+      </c>
+      <c r="X7" s="12">
+        <v>1490</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>2422</v>
+      </c>
+      <c r="Z7" s="20">
+        <v>1210</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
@@ -6876,13 +6711,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>365</v>
@@ -6894,61 +6729,61 @@
         <v>5</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>367</v>
       </c>
       <c r="J8" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>371</v>
+      <c r="L8" s="19">
+        <v>24</v>
+      </c>
+      <c r="M8" s="12">
+        <v>180</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>414</v>
+        <v>380</v>
+      </c>
+      <c r="O8" s="12">
+        <v>177</v>
       </c>
       <c r="P8" s="12">
         <v>5</v>
       </c>
-      <c r="Q8" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="T8" s="27">
+      <c r="Q8" s="12">
+        <v>998</v>
+      </c>
+      <c r="R8" s="12">
+        <v>68</v>
+      </c>
+      <c r="S8" s="19">
+        <v>90</v>
+      </c>
+      <c r="T8" s="25">
         <v>3</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="X8" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="Y8" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="Z8" s="22" t="s">
-        <v>382</v>
+        <v>370</v>
+      </c>
+      <c r="V8" s="12">
+        <v>3545</v>
+      </c>
+      <c r="W8" s="12">
+        <v>1490</v>
+      </c>
+      <c r="X8" s="12">
+        <v>1475</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>2360</v>
+      </c>
+      <c r="Z8" s="20">
+        <v>1210</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
@@ -6956,13 +6791,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>365</v>
@@ -6974,61 +6809,61 @@
         <v>5</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>367</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>424</v>
+        <v>368</v>
+      </c>
+      <c r="L9" s="19">
+        <v>28</v>
+      </c>
+      <c r="M9" s="12">
+        <v>185</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>414</v>
+        <v>380</v>
+      </c>
+      <c r="O9" s="12">
+        <v>177</v>
       </c>
       <c r="P9" s="12">
         <v>5</v>
       </c>
-      <c r="Q9" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="S9" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="T9" s="27">
+      <c r="Q9" s="12">
+        <v>998</v>
+      </c>
+      <c r="R9" s="12">
+        <v>68</v>
+      </c>
+      <c r="S9" s="19">
+        <v>90</v>
+      </c>
+      <c r="T9" s="25">
         <v>3</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="V9" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="W9" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="X9" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="Y9" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="Z9" s="22" t="s">
-        <v>382</v>
+        <v>370</v>
+      </c>
+      <c r="V9" s="12">
+        <v>3545</v>
+      </c>
+      <c r="W9" s="12">
+        <v>1490</v>
+      </c>
+      <c r="X9" s="12">
+        <v>1475</v>
+      </c>
+      <c r="Y9" s="12">
+        <v>2360</v>
+      </c>
+      <c r="Z9" s="20">
+        <v>1210</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
@@ -7036,13 +6871,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>365</v>
@@ -7054,61 +6889,61 @@
         <v>5</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>367</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>424</v>
+        <v>368</v>
+      </c>
+      <c r="L10" s="19">
+        <v>28</v>
+      </c>
+      <c r="M10" s="12">
+        <v>185</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>428</v>
+        <v>380</v>
+      </c>
+      <c r="O10" s="12">
+        <v>265</v>
       </c>
       <c r="P10" s="12">
         <v>5</v>
       </c>
-      <c r="Q10" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="S10" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="T10" s="27">
+      <c r="Q10" s="12">
+        <v>1198</v>
+      </c>
+      <c r="R10" s="12">
+        <v>78</v>
+      </c>
+      <c r="S10" s="19">
+        <v>104</v>
+      </c>
+      <c r="T10" s="25">
         <v>3</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="V10" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="W10" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="X10" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="Y10" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="Z10" s="22" t="s">
-        <v>436</v>
+        <v>370</v>
+      </c>
+      <c r="V10" s="12">
+        <v>3788</v>
+      </c>
+      <c r="W10" s="12">
+        <v>1636</v>
+      </c>
+      <c r="X10" s="12">
+        <v>1507</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>2450</v>
+      </c>
+      <c r="Z10" s="20">
+        <v>1350</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
@@ -7116,13 +6951,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>437</v>
+        <v>388</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>365</v>
@@ -7134,61 +6969,61 @@
         <v>5</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>367</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>424</v>
+        <v>368</v>
+      </c>
+      <c r="L11" s="19">
+        <v>28</v>
+      </c>
+      <c r="M11" s="12">
+        <v>185</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>439</v>
+        <v>380</v>
+      </c>
+      <c r="O11" s="12">
+        <v>235</v>
       </c>
       <c r="P11" s="12">
         <v>5</v>
       </c>
-      <c r="Q11" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="T11" s="27">
+      <c r="Q11" s="12">
+        <v>998</v>
+      </c>
+      <c r="R11" s="12">
+        <v>59</v>
+      </c>
+      <c r="S11" s="19">
+        <v>78</v>
+      </c>
+      <c r="T11" s="25">
         <v>3</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="V11" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="W11" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="X11" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="Y11" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="Z11" s="22" t="s">
-        <v>436</v>
+        <v>390</v>
+      </c>
+      <c r="V11" s="12">
+        <v>3695</v>
+      </c>
+      <c r="W11" s="12">
+        <v>1600</v>
+      </c>
+      <c r="X11" s="12">
+        <v>1560</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>2425</v>
+      </c>
+      <c r="Z11" s="20">
+        <v>1350</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
@@ -7196,79 +7031,79 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>446</v>
+        <v>391</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>447</v>
+        <v>392</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>448</v>
+        <v>393</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>365</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>449</v>
+        <v>394</v>
       </c>
       <c r="G12" s="12">
         <v>5</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>367</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="K12" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="L12" s="19">
+        <v>28</v>
+      </c>
+      <c r="M12" s="12">
+        <v>185</v>
+      </c>
+      <c r="N12" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="L12" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>450</v>
+      <c r="O12" s="12">
+        <v>236</v>
       </c>
       <c r="P12" s="12">
         <v>5</v>
       </c>
-      <c r="Q12" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="S12" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="T12" s="27">
+      <c r="Q12" s="12">
+        <v>1086</v>
+      </c>
+      <c r="R12" s="12">
+        <v>69</v>
+      </c>
+      <c r="S12" s="19">
+        <v>10.1</v>
+      </c>
+      <c r="T12" s="25">
         <v>4</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="V12" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="W12" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="X12" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="Y12" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="Z12" s="22" t="s">
-        <v>436</v>
+        <v>370</v>
+      </c>
+      <c r="V12" s="12">
+        <v>3610</v>
+      </c>
+      <c r="W12" s="12">
+        <v>1645</v>
+      </c>
+      <c r="X12" s="12">
+        <v>1560</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>2400</v>
+      </c>
+      <c r="Z12" s="20">
+        <v>1350</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
@@ -7276,13 +7111,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>446</v>
+        <v>391</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>447</v>
+        <v>392</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>457</v>
+        <v>395</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>365</v>
@@ -7294,61 +7129,61 @@
         <v>5</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>367</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>461</v>
+        <v>396</v>
+      </c>
+      <c r="L13" s="19">
+        <v>54</v>
+      </c>
+      <c r="M13" s="12">
+        <v>211</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>462</v>
+        <v>380</v>
+      </c>
+      <c r="O13" s="12">
+        <v>237</v>
       </c>
       <c r="P13" s="12">
         <v>5</v>
       </c>
-      <c r="Q13" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="T13" s="27">
+      <c r="Q13" s="12">
+        <v>1086</v>
+      </c>
+      <c r="R13" s="12">
+        <v>69</v>
+      </c>
+      <c r="S13" s="19">
+        <v>10.1</v>
+      </c>
+      <c r="T13" s="25">
         <v>4</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="V13" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="W13" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="X13" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="Y13" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="Z13" s="22" t="s">
-        <v>436</v>
+        <v>370</v>
+      </c>
+      <c r="V13" s="12">
+        <v>3610</v>
+      </c>
+      <c r="W13" s="12">
+        <v>1645</v>
+      </c>
+      <c r="X13" s="12">
+        <v>1560</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>2400</v>
+      </c>
+      <c r="Z13" s="20">
+        <v>1350</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
@@ -7359,10 +7194,10 @@
         <v>362</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>463</v>
+        <v>397</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>365</v>
@@ -7374,61 +7209,61 @@
         <v>5</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>367</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="K14" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="L14" s="19">
+        <v>28</v>
+      </c>
+      <c r="M14" s="12">
+        <v>185</v>
+      </c>
+      <c r="N14" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="L14" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>465</v>
+      <c r="O14" s="12">
+        <v>242</v>
       </c>
       <c r="P14" s="12">
         <v>5</v>
       </c>
-      <c r="Q14" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="T14" s="27">
+      <c r="Q14" s="12">
+        <v>1199</v>
+      </c>
+      <c r="R14" s="12">
+        <v>86</v>
+      </c>
+      <c r="S14" s="19">
+        <v>114</v>
+      </c>
+      <c r="T14" s="25">
         <v>3</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="V14" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="W14" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="X14" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="Y14" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="Z14" s="22" t="s">
-        <v>436</v>
+        <v>370</v>
+      </c>
+      <c r="V14" s="12">
+        <v>3746</v>
+      </c>
+      <c r="W14" s="12">
+        <v>1647</v>
+      </c>
+      <c r="X14" s="12">
+        <v>1535</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>2400</v>
+      </c>
+      <c r="Z14" s="20">
+        <v>1350</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
@@ -7439,76 +7274,76 @@
         <v>362</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>463</v>
+        <v>397</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>472</v>
+        <v>398</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>365</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>449</v>
+        <v>394</v>
       </c>
       <c r="G15" s="12">
         <v>5</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>367</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>473</v>
+        <v>396</v>
+      </c>
+      <c r="L15" s="19">
+        <v>28</v>
+      </c>
+      <c r="M15" s="12">
+        <v>184</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>474</v>
+        <v>380</v>
+      </c>
+      <c r="O15" s="12">
+        <v>240</v>
       </c>
       <c r="P15" s="12">
         <v>5</v>
       </c>
-      <c r="Q15" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="T15" s="27">
+      <c r="Q15" s="12">
+        <v>1199</v>
+      </c>
+      <c r="R15" s="12">
+        <v>86</v>
+      </c>
+      <c r="S15" s="19">
+        <v>114</v>
+      </c>
+      <c r="T15" s="25">
         <v>3</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="V15" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="W15" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="X15" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="Y15" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="Z15" s="22" t="s">
-        <v>436</v>
+        <v>370</v>
+      </c>
+      <c r="V15" s="12">
+        <v>3746</v>
+      </c>
+      <c r="W15" s="12">
+        <v>1647</v>
+      </c>
+      <c r="X15" s="12">
+        <v>1535</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>2400</v>
+      </c>
+      <c r="Z15" s="20">
+        <v>1350</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
@@ -7516,79 +7351,79 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>475</v>
+        <v>399</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>476</v>
+        <v>400</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>365</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G16" s="12">
         <v>5</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>367</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>473</v>
+        <v>396</v>
+      </c>
+      <c r="L16" s="19">
+        <v>28</v>
+      </c>
+      <c r="M16" s="12">
+        <v>184</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>439</v>
+        <v>369</v>
+      </c>
+      <c r="O16" s="12">
+        <v>235</v>
       </c>
       <c r="P16" s="12">
         <v>5</v>
       </c>
-      <c r="Q16" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="T16" s="27">
+      <c r="Q16" s="12">
+        <v>998</v>
+      </c>
+      <c r="R16" s="12">
+        <v>68</v>
+      </c>
+      <c r="S16" s="19">
+        <v>90</v>
+      </c>
+      <c r="T16" s="25">
         <v>3</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="V16" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="W16" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="X16" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="Y16" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="Z16" s="22" t="s">
-        <v>478</v>
+        <v>370</v>
+      </c>
+      <c r="V16" s="12">
+        <v>3600</v>
+      </c>
+      <c r="W16" s="12">
+        <v>1600</v>
+      </c>
+      <c r="X16" s="12">
+        <v>1560</v>
+      </c>
+      <c r="Y16" s="12">
+        <v>2425</v>
+      </c>
+      <c r="Z16" s="20">
+        <v>1250</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
@@ -7596,13 +7431,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>475</v>
+        <v>399</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>479</v>
+        <v>401</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>365</v>
@@ -7614,61 +7449,61 @@
         <v>5</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>367</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>473</v>
+        <v>396</v>
+      </c>
+      <c r="L17" s="19">
+        <v>28</v>
+      </c>
+      <c r="M17" s="12">
+        <v>184</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>439</v>
+        <v>380</v>
+      </c>
+      <c r="O17" s="12">
+        <v>235</v>
       </c>
       <c r="P17" s="12">
         <v>5</v>
       </c>
-      <c r="Q17" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="R17" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="S17" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="T17" s="27">
+      <c r="Q17" s="12">
+        <v>998</v>
+      </c>
+      <c r="R17" s="12">
+        <v>68</v>
+      </c>
+      <c r="S17" s="19">
+        <v>90</v>
+      </c>
+      <c r="T17" s="25">
         <v>3</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="V17" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="W17" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="X17" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="Y17" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="Z17" s="22" t="s">
-        <v>478</v>
+        <v>370</v>
+      </c>
+      <c r="V17" s="12">
+        <v>3600</v>
+      </c>
+      <c r="W17" s="12">
+        <v>1600</v>
+      </c>
+      <c r="X17" s="12">
+        <v>1560</v>
+      </c>
+      <c r="Y17" s="12">
+        <v>2425</v>
+      </c>
+      <c r="Z17" s="20">
+        <v>1250</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
@@ -7676,77 +7511,79 @@
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>480</v>
+        <v>402</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>481</v>
+        <v>403</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>365</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="G18" s="12"/>
+        <v>394</v>
+      </c>
+      <c r="G18" s="12">
+        <v>5</v>
+      </c>
       <c r="H18" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>367</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>461</v>
+        <v>396</v>
+      </c>
+      <c r="L18" s="19">
+        <v>54</v>
+      </c>
+      <c r="M18" s="12">
+        <v>211</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>482</v>
+        <v>369</v>
+      </c>
+      <c r="O18" s="12">
+        <v>260</v>
       </c>
       <c r="P18" s="12">
         <v>5</v>
       </c>
-      <c r="Q18" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="R18" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="S18" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="T18" s="27">
+      <c r="Q18" s="12">
+        <v>1197</v>
+      </c>
+      <c r="R18" s="12">
+        <v>83</v>
+      </c>
+      <c r="S18" s="19">
+        <v>113</v>
+      </c>
+      <c r="T18" s="25">
         <v>4</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="V18" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="W18" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="X18" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y18" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="Z18" s="22" t="s">
-        <v>478</v>
+        <v>370</v>
+      </c>
+      <c r="V18" s="12">
+        <v>3700</v>
+      </c>
+      <c r="W18" s="12">
+        <v>1690</v>
+      </c>
+      <c r="X18" s="12">
+        <v>1595</v>
+      </c>
+      <c r="Y18" s="12">
+        <v>2435</v>
+      </c>
+      <c r="Z18" s="20">
+        <v>1250</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -7754,16 +7591,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>490</v>
+        <v>404</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>491</v>
+        <v>405</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>492</v>
+        <v>406</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>366</v>
@@ -7772,61 +7609,61 @@
         <v>5</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>367</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>473</v>
+        <v>396</v>
+      </c>
+      <c r="L19" s="19">
+        <v>28</v>
+      </c>
+      <c r="M19" s="12">
+        <v>184</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>493</v>
+        <v>380</v>
+      </c>
+      <c r="O19" s="12">
+        <v>625</v>
       </c>
       <c r="P19" s="12">
         <v>7</v>
       </c>
-      <c r="Q19" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="R19" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="T19" s="27">
+      <c r="Q19" s="12">
+        <v>999</v>
+      </c>
+      <c r="R19" s="12">
+        <v>72</v>
+      </c>
+      <c r="S19" s="19">
+        <v>96</v>
+      </c>
+      <c r="T19" s="25">
         <v>3</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="V19" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="W19" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="X19" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="Y19" s="12" t="s">
-        <v>499</v>
-      </c>
-      <c r="Z19" s="22" t="s">
-        <v>478</v>
+        <v>370</v>
+      </c>
+      <c r="V19" s="12">
+        <v>3990</v>
+      </c>
+      <c r="W19" s="12">
+        <v>1739</v>
+      </c>
+      <c r="X19" s="12">
+        <v>1643</v>
+      </c>
+      <c r="Y19" s="12">
+        <v>2636</v>
+      </c>
+      <c r="Z19" s="20">
+        <v>1250</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -7834,13 +7671,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>500</v>
+        <v>407</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>501</v>
+        <v>408</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>502</v>
+        <v>409</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>365</v>
@@ -7852,61 +7689,61 @@
         <v>5</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>367</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>473</v>
+        <v>396</v>
+      </c>
+      <c r="L20" s="19">
+        <v>28</v>
+      </c>
+      <c r="M20" s="12">
+        <v>184</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>503</v>
+        <v>369</v>
+      </c>
+      <c r="O20" s="12">
+        <v>251</v>
       </c>
       <c r="P20" s="12">
         <v>5</v>
       </c>
-      <c r="Q20" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="R20" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="S20" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="T20" s="27">
+      <c r="Q20" s="12">
+        <v>1197</v>
+      </c>
+      <c r="R20" s="12">
+        <v>80</v>
+      </c>
+      <c r="S20" s="19">
+        <v>104</v>
+      </c>
+      <c r="T20" s="25">
         <v>4</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="V20" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="W20" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="X20" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="Y20" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="Z20" s="22" t="s">
-        <v>510</v>
+        <v>370</v>
+      </c>
+      <c r="V20" s="12">
+        <v>3884</v>
+      </c>
+      <c r="W20" s="12">
+        <v>1695</v>
+      </c>
+      <c r="X20" s="12">
+        <v>1510</v>
+      </c>
+      <c r="Y20" s="12">
+        <v>2460</v>
+      </c>
+      <c r="Z20" s="20">
+        <v>1475</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
@@ -7914,13 +7751,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>511</v>
+        <v>410</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>512</v>
+        <v>411</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>513</v>
+        <v>412</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>365</v>
@@ -7932,61 +7769,61 @@
         <v>5</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>367</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>473</v>
+        <v>396</v>
+      </c>
+      <c r="L21" s="19">
+        <v>28</v>
+      </c>
+      <c r="M21" s="12">
+        <v>184</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>503</v>
+        <v>380</v>
+      </c>
+      <c r="O21" s="12">
+        <v>251</v>
       </c>
       <c r="P21" s="12">
         <v>5</v>
       </c>
-      <c r="Q21" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="R21" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="S21" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="T21" s="27">
+      <c r="Q21" s="12">
+        <v>1198</v>
+      </c>
+      <c r="R21" s="12">
+        <v>68</v>
+      </c>
+      <c r="S21" s="19">
+        <v>104</v>
+      </c>
+      <c r="T21" s="25">
         <v>3</v>
       </c>
       <c r="U21" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="V21" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="W21" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="X21" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="Y21" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="Z21" s="22" t="s">
-        <v>510</v>
+        <v>370</v>
+      </c>
+      <c r="V21" s="12">
+        <v>3801</v>
+      </c>
+      <c r="W21" s="12">
+        <v>1665</v>
+      </c>
+      <c r="X21" s="12">
+        <v>1530</v>
+      </c>
+      <c r="Y21" s="12">
+        <v>2450</v>
+      </c>
+      <c r="Z21" s="20">
+        <v>1475</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -7994,13 +7831,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>511</v>
+        <v>410</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>512</v>
+        <v>411</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>518</v>
+        <v>413</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>365</v>
@@ -8012,61 +7849,61 @@
         <v>5</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>367</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>473</v>
+        <v>396</v>
+      </c>
+      <c r="L22" s="19">
+        <v>28</v>
+      </c>
+      <c r="M22" s="12">
+        <v>184</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="O22" s="12" t="s">
-        <v>503</v>
+        <v>369</v>
+      </c>
+      <c r="O22" s="12">
+        <v>251</v>
       </c>
       <c r="P22" s="12">
         <v>5</v>
       </c>
-      <c r="Q22" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="R22" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="S22" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="T22" s="27">
+      <c r="Q22" s="12">
+        <v>1198</v>
+      </c>
+      <c r="R22" s="12">
+        <v>68</v>
+      </c>
+      <c r="S22" s="19">
+        <v>104</v>
+      </c>
+      <c r="T22" s="25">
         <v>3</v>
       </c>
       <c r="U22" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="V22" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="W22" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="X22" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="Y22" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="Z22" s="22" t="s">
-        <v>510</v>
+        <v>370</v>
+      </c>
+      <c r="V22" s="12">
+        <v>3801</v>
+      </c>
+      <c r="W22" s="12">
+        <v>1665</v>
+      </c>
+      <c r="X22" s="12">
+        <v>1530</v>
+      </c>
+      <c r="Y22" s="12">
+        <v>2450</v>
+      </c>
+      <c r="Z22" s="20">
+        <v>1475</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -8077,10 +7914,10 @@
         <v>362</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>519</v>
+        <v>414</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>520</v>
+        <v>415</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>365</v>
@@ -8092,61 +7929,61 @@
         <v>5</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>367</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>461</v>
+        <v>396</v>
+      </c>
+      <c r="L23" s="19">
+        <v>54</v>
+      </c>
+      <c r="M23" s="12">
+        <v>211</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="O23" s="12" t="s">
-        <v>521</v>
+        <v>380</v>
+      </c>
+      <c r="O23" s="12">
+        <v>210</v>
       </c>
       <c r="P23" s="12">
         <v>5</v>
       </c>
-      <c r="Q23" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="R23" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="S23" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="T23" s="27">
+      <c r="Q23" s="12">
+        <v>1248</v>
+      </c>
+      <c r="R23" s="12">
+        <v>75</v>
+      </c>
+      <c r="S23" s="19">
+        <v>190</v>
+      </c>
+      <c r="T23" s="25">
         <v>4</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="V23" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="W23" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="X23" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="Y23" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="Z23" s="22" t="s">
-        <v>529</v>
+        <v>416</v>
+      </c>
+      <c r="V23" s="12">
+        <v>3825</v>
+      </c>
+      <c r="W23" s="12">
+        <v>1695</v>
+      </c>
+      <c r="X23" s="12">
+        <v>1562</v>
+      </c>
+      <c r="Y23" s="12">
+        <v>2470</v>
+      </c>
+      <c r="Z23" s="20">
+        <v>1160</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -8157,10 +7994,10 @@
         <v>362</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>519</v>
+        <v>414</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>530</v>
+        <v>417</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>365</v>
@@ -8172,61 +8009,61 @@
         <v>5</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>367</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>473</v>
+        <v>396</v>
+      </c>
+      <c r="L24" s="19">
+        <v>28</v>
+      </c>
+      <c r="M24" s="12">
+        <v>184</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="O24" s="12" t="s">
-        <v>521</v>
+        <v>369</v>
+      </c>
+      <c r="O24" s="12">
+        <v>210</v>
       </c>
       <c r="P24" s="12">
         <v>5</v>
       </c>
-      <c r="Q24" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="R24" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="S24" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="T24" s="27">
+      <c r="Q24" s="12">
+        <v>1248</v>
+      </c>
+      <c r="R24" s="12">
+        <v>75</v>
+      </c>
+      <c r="S24" s="19">
+        <v>190</v>
+      </c>
+      <c r="T24" s="25">
         <v>4</v>
       </c>
       <c r="U24" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="V24" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="W24" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="X24" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="Y24" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="Z24" s="22" t="s">
-        <v>529</v>
+        <v>416</v>
+      </c>
+      <c r="V24" s="12">
+        <v>3825</v>
+      </c>
+      <c r="W24" s="12">
+        <v>1695</v>
+      </c>
+      <c r="X24" s="12">
+        <v>1562</v>
+      </c>
+      <c r="Y24" s="12">
+        <v>2470</v>
+      </c>
+      <c r="Z24" s="20">
+        <v>1160</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -8234,16 +8071,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>446</v>
+        <v>391</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>531</v>
+        <v>418</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>532</v>
+        <v>419</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>533</v>
+        <v>420</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>366</v>
@@ -8252,61 +8089,61 @@
         <v>5</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>367</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>473</v>
+        <v>396</v>
+      </c>
+      <c r="L25" s="19">
+        <v>28</v>
+      </c>
+      <c r="M25" s="12">
+        <v>184</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>534</v>
+        <v>380</v>
+      </c>
+      <c r="O25" s="12">
+        <v>407</v>
       </c>
       <c r="P25" s="12">
         <v>5</v>
       </c>
-      <c r="Q25" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="R25" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="S25" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="T25" s="27">
+      <c r="Q25" s="12">
+        <v>1197</v>
+      </c>
+      <c r="R25" s="12">
+        <v>83</v>
+      </c>
+      <c r="S25" s="19">
+        <v>114</v>
+      </c>
+      <c r="T25" s="25">
         <v>4</v>
       </c>
       <c r="U25" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="V25" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="W25" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="X25" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="Y25" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="Z25" s="22" t="s">
-        <v>540</v>
+        <v>421</v>
+      </c>
+      <c r="V25" s="12">
+        <v>3995</v>
+      </c>
+      <c r="W25" s="12">
+        <v>1660</v>
+      </c>
+      <c r="X25" s="12">
+        <v>1520</v>
+      </c>
+      <c r="Y25" s="12">
+        <v>2425</v>
+      </c>
+      <c r="Z25" s="20">
+        <v>1530</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
@@ -8314,16 +8151,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>446</v>
+        <v>391</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>531</v>
+        <v>418</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>541</v>
+        <v>422</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>533</v>
+        <v>420</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>366</v>
@@ -8332,61 +8169,61 @@
         <v>5</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>367</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>473</v>
+        <v>396</v>
+      </c>
+      <c r="L26" s="19">
+        <v>28</v>
+      </c>
+      <c r="M26" s="12">
+        <v>184</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>534</v>
+        <v>369</v>
+      </c>
+      <c r="O26" s="12">
+        <v>407</v>
       </c>
       <c r="P26" s="12">
         <v>5</v>
       </c>
-      <c r="Q26" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="R26" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="S26" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="T26" s="27">
+      <c r="Q26" s="12">
+        <v>1197</v>
+      </c>
+      <c r="R26" s="12">
+        <v>83</v>
+      </c>
+      <c r="S26" s="19">
+        <v>114</v>
+      </c>
+      <c r="T26" s="25">
         <v>4</v>
       </c>
       <c r="U26" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="V26" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="W26" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="X26" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="Y26" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="Z26" s="22" t="s">
-        <v>540</v>
+        <v>370</v>
+      </c>
+      <c r="V26" s="12">
+        <v>3995</v>
+      </c>
+      <c r="W26" s="12">
+        <v>1660</v>
+      </c>
+      <c r="X26" s="12">
+        <v>1520</v>
+      </c>
+      <c r="Y26" s="12">
+        <v>2425</v>
+      </c>
+      <c r="Z26" s="20">
+        <v>1530</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
@@ -8394,77 +8231,79 @@
         <v>25</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>542</v>
+        <v>423</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>543</v>
+        <v>424</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>533</v>
+        <v>420</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="G27" s="12"/>
+      <c r="G27" s="12">
+        <v>5</v>
+      </c>
       <c r="H27" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>367</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>368</v>
+        <v>446</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>545</v>
+        <v>396</v>
+      </c>
+      <c r="L27" s="19">
+        <v>40</v>
+      </c>
+      <c r="M27" s="12">
+        <v>160</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="O27" s="12" t="s">
-        <v>546</v>
+        <v>380</v>
+      </c>
+      <c r="O27" s="12">
+        <v>320</v>
       </c>
       <c r="P27" s="12">
         <v>5</v>
       </c>
-      <c r="Q27" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="R27" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="S27" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="T27" s="27">
+      <c r="Q27" s="12">
+        <v>1248</v>
+      </c>
+      <c r="R27" s="12">
+        <v>75</v>
+      </c>
+      <c r="S27" s="19">
+        <v>190</v>
+      </c>
+      <c r="T27" s="25">
         <v>4</v>
       </c>
       <c r="U27" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="V27" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="W27" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="X27" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="Y27" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="Z27" s="22" t="s">
-        <v>550</v>
+        <v>416</v>
+      </c>
+      <c r="V27" s="12">
+        <v>3995</v>
+      </c>
+      <c r="W27" s="12">
+        <v>1695</v>
+      </c>
+      <c r="X27" s="12">
+        <v>1555</v>
+      </c>
+      <c r="Y27" s="12">
+        <v>2430</v>
+      </c>
+      <c r="Z27" s="20">
+        <v>1505</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
@@ -8472,16 +8311,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>542</v>
+        <v>423</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>533</v>
+        <v>420</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>366</v>
@@ -8490,61 +8329,61 @@
         <v>5</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>367</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>545</v>
+        <v>396</v>
+      </c>
+      <c r="L28" s="19">
+        <v>40</v>
+      </c>
+      <c r="M28" s="12">
+        <v>160</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="O28" s="12" t="s">
-        <v>551</v>
+        <v>369</v>
+      </c>
+      <c r="O28" s="12">
+        <v>316</v>
       </c>
       <c r="P28" s="12">
         <v>5</v>
       </c>
-      <c r="Q28" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="R28" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="S28" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="T28" s="27">
+      <c r="Q28" s="12">
+        <v>1197</v>
+      </c>
+      <c r="R28" s="12">
+        <v>83</v>
+      </c>
+      <c r="S28" s="19">
+        <v>115</v>
+      </c>
+      <c r="T28" s="25">
         <v>4</v>
       </c>
       <c r="U28" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="V28" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="W28" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="X28" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="Y28" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="Z28" s="22" t="s">
-        <v>553</v>
+        <v>370</v>
+      </c>
+      <c r="V28" s="12">
+        <v>3995</v>
+      </c>
+      <c r="W28" s="12">
+        <v>1695</v>
+      </c>
+      <c r="X28" s="12">
+        <v>1555</v>
+      </c>
+      <c r="Y28" s="12">
+        <v>2430</v>
+      </c>
+      <c r="Z28" s="20">
+        <v>1415</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
@@ -8552,16 +8391,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>542</v>
+        <v>423</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>554</v>
+        <v>425</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>533</v>
+        <v>420</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>366</v>
@@ -8570,61 +8409,61 @@
         <v>5</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>367</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>461</v>
+        <v>396</v>
+      </c>
+      <c r="L29" s="19">
+        <v>54</v>
+      </c>
+      <c r="M29" s="12">
+        <v>211</v>
       </c>
       <c r="N29" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>551</v>
+        <v>369</v>
+      </c>
+      <c r="O29" s="12">
+        <v>316</v>
       </c>
       <c r="P29" s="12">
         <v>5</v>
       </c>
-      <c r="Q29" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="R29" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="S29" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="T29" s="27">
+      <c r="Q29" s="12">
+        <v>1197</v>
+      </c>
+      <c r="R29" s="12">
+        <v>69</v>
+      </c>
+      <c r="S29" s="19">
+        <v>115</v>
+      </c>
+      <c r="T29" s="25">
         <v>4</v>
       </c>
       <c r="U29" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="V29" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="W29" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="X29" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="Y29" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="Z29" s="22" t="s">
-        <v>553</v>
+        <v>390</v>
+      </c>
+      <c r="V29" s="12">
+        <v>3995</v>
+      </c>
+      <c r="W29" s="12">
+        <v>1695</v>
+      </c>
+      <c r="X29" s="12">
+        <v>1555</v>
+      </c>
+      <c r="Y29" s="12">
+        <v>2430</v>
+      </c>
+      <c r="Z29" s="20">
+        <v>1415</v>
       </c>
     </row>
   </sheetData>
@@ -8636,8 +8475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD348A0E-D269-43F9-A779-5DBB2FC1E379}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8662,60 +8501,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:18" s="30" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>556</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>558</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>559</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>560</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>561</v>
+    <row r="2" spans="1:18" s="28" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>431</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>562</v>
+        <v>432</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>563</v>
+        <v>433</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>564</v>
+        <v>434</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>565</v>
+        <v>435</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>566</v>
+        <v>436</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>567</v>
+        <v>437</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>568</v>
+        <v>438</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>569</v>
+        <v>439</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>570</v>
+        <v>440</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>571</v>
+        <v>441</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>572</v>
+        <v>442</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>573</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
